--- a/runs/train200epoch/模型分析汇总.xlsx
+++ b/runs/train200epoch/模型分析汇总.xlsx
@@ -498,10 +498,10 @@
         <v>4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>464.8</v>
+        <v>627.7</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -532,10 +532,10 @@
         <v>4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>3.09</v>
+        <v>2.4</v>
       </c>
       <c r="G3" t="n">
-        <v>323.2</v>
+        <v>416.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -566,10 +566,10 @@
         <v>7.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.01</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>497.3</v>
+        <v>768.9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -600,10 +600,10 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3.12</v>
+        <v>2.21</v>
       </c>
       <c r="G5" t="n">
-        <v>320.3</v>
+        <v>453.4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
         <v>7.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>1.28</v>
       </c>
       <c r="G6" t="n">
-        <v>496.2</v>
+        <v>780.2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
